--- a/sample_excel/suggest.xlsx
+++ b/sample_excel/suggest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.137.47964"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>title</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -925,15 +928,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -948,6 +951,9 @@
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
